--- a/docs/PTA3_ADDC_10_4/PTA3_ADDC_10_4_12.11.2024_output.xlsx
+++ b/docs/PTA3_ADDC_10_4/PTA3_ADDC_10_4_12.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:N94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,304 +505,5330 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1731702048.486034</t>
-        </is>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1731702050.2013874</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702048.486034.png</t>
+          <t>1731870402.751616</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702050.2013874.png</t>
+          <t>1731870403.2435799</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>./test_images/GAZP1731870402.751616.png</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>2793.4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2793.1</v>
+          <t>./test_images/GAZP1731870403.2435799.png</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K3" t="n">
-        <v>0.3000000000001819</v>
+        <v>136.37</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01</v>
+        <v>136.73</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.3599999999999852</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1731702053.276444</t>
-        </is>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1731702055.453705</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702053.276444.png</t>
+          <t>1731870406.1017957</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702055.453705.png</t>
+          <t>1731870406.9873242</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731870406.1017957.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731870406.9873242.png</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>2786.45</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2785</v>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K4" t="n">
-        <v>-1.449999999999818</v>
+        <v>136.41</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.05</v>
+        <v>136.52</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.1100000000000136</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1731702057.561099</t>
-        </is>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1731702057.600571</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702057.561099.png</t>
+          <t>1731870408.0368896</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702057.600571.png</t>
+          <t>1731870412.1913104</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731870408.0368896.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731870412.1913104.png</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>2783.45</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2784.85</v>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K5" t="n">
-        <v>1.400000000000091</v>
+        <v>136.3</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05</v>
+        <v>135.82</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.4800000000000182</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1731702058.995426</t>
-        </is>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1731702060.782677</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702058.995426.png</t>
+          <t>1731870412.6453042</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702060.782677.png</t>
+          <t>1731870412.7168076</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>./test_images/GAZP1731870412.6453042.png</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>2776.05</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2783.9</v>
+          <t>./test_images/GAZP1731870412.7168076.png</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K6" t="n">
-        <v>7.849999999999909</v>
+        <v>135.94</v>
       </c>
       <c r="L6" t="n">
-        <v>0.28</v>
+        <v>135.72</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.2199999999999989</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1731870413.883252</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1731870415.9059823</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731870413.883252.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731870415.9059823.png</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>135.4</v>
+      </c>
+      <c r="L7" t="n">
+        <v>135.25</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.1500000000000057</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1731870417.7008083</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1731870418.2483206</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731870417.7008083.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731870418.2483206.png</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>134.96</v>
+      </c>
+      <c r="L8" t="n">
+        <v>135.18</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.2199999999999989</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1731870420.0004404</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731870420.0004404.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>135.31</v>
+      </c>
+      <c r="L9" t="n">
+        <v>135.34</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.03000000000000114</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1731870421.5224469</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1731870423.1542528</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731870421.5224469.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731870423.1542528.png</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>7020</v>
+      </c>
+      <c r="L10" t="n">
+        <v>7035</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-15</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1731870424.7554038</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1731870426.389224</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731870424.7554038.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731870426.389224.png</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>7031</v>
+      </c>
+      <c r="L11" t="n">
+        <v>7031.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1731870427.270484</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1731870429.8624449</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731870427.270484.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731870429.8624449.png</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>7020.5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7007</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1731870429.9093983</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1731870430.0194805</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731870429.9093983.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731870430.0194805.png</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>7008.5</v>
+      </c>
+      <c r="L13" t="n">
+        <v>7005</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1731870430.8436344</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1731870431.2558625</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731870430.8436344.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731870431.2558625.png</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L14" t="n">
+        <v>7008.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1731870431.4138741</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1731870431.6074529</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731870431.4138741.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731870431.6074529.png</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>6999</v>
+      </c>
+      <c r="L15" t="n">
+        <v>7010</v>
+      </c>
+      <c r="M15" t="n">
+        <v>11</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1731870431.6513095</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1731870432.7681327</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731870431.6513095.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731870432.7681327.png</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>7013.5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>7005.5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>8</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1731870433.3814325</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1731870435.6136122</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731870433.3814325.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731870435.6136122.png</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L17" t="n">
+        <v>6996.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1731870435.708548</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1731870436.6919024</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731870435.708548.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731870436.6919024.png</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L18" t="n">
+        <v>6994</v>
+      </c>
+      <c r="M18" t="n">
+        <v>6</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1731870437.8808348</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1731870438.7998435</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731870437.8808348.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731870438.7998435.png</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>7003</v>
+      </c>
+      <c r="L19" t="n">
+        <v>7000.5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1731870439.8690383</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731870439.8690383.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>7008</v>
+      </c>
+      <c r="L20" t="n">
+        <v>7006.5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1731870441.3512738</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1731870444.1750038</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870441.3512738.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870444.1750038.png</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>489.9</v>
+      </c>
+      <c r="L21" t="n">
+        <v>492.35</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-2.450000000000045</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1731870444.347876</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1731870447.0224469</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870444.347876.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870447.0224469.png</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>491.9</v>
+      </c>
+      <c r="L22" t="n">
+        <v>490.85</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-1.049999999999955</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1731870447.0384047</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1731870447.109177</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870447.0384047.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870447.109177.png</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>490.85</v>
+      </c>
+      <c r="L23" t="n">
+        <v>490.6</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1731870448.357288</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1731870448.818795</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870448.357288.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870448.818795.png</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>490.3</v>
+      </c>
+      <c r="L24" t="n">
+        <v>490.45</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.1499999999999773</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1731870448.9445379</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1731870449.016335</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870448.9445379.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870449.016335.png</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>490.55</v>
+      </c>
+      <c r="L25" t="n">
+        <v>490.35</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.1999999999999886</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1731870449.3733494</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1731870449.4436958</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870449.3733494.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870449.4436958.png</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>490.45</v>
+      </c>
+      <c r="L26" t="n">
+        <v>490.45</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1731870450.0515995</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1731870454.2129266</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870450.0515995.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870454.2129266.png</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>490</v>
+      </c>
+      <c r="L27" t="n">
+        <v>487.25</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-2.75</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.5599999999999999</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1731870455.4965477</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731870455.4965477.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>486.5</v>
+      </c>
+      <c r="L28" t="n">
+        <v>484.5</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1731870459.250675</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1731870461.5636237</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870459.250675.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870461.5636237.png</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>940.4</v>
+      </c>
+      <c r="L29" t="n">
+        <v>943.8</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-3.399999999999977</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1731870462.6232803</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1731870463.006384</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870462.6232803.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870463.006384.png</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>945.2</v>
+      </c>
+      <c r="L30" t="n">
+        <v>945.8</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.5999999999999091</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1731870463.048957</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1731870463.8054364</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870463.048957.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870463.8054364.png</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>945.8</v>
+      </c>
+      <c r="L31" t="n">
+        <v>946.6</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.8000000000000682</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1731870464.1301055</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1731870468.0783763</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870464.1301055.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870468.0783763.png</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>945</v>
+      </c>
+      <c r="L32" t="n">
+        <v>939.4</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-5.600000000000023</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1731870469.4584723</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1731870471.6679318</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870469.4584723.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870471.6679318.png</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>937</v>
+      </c>
+      <c r="L33" t="n">
+        <v>935</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1731870472.0597975</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1731870472.98376</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870472.0597975.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870472.98376.png</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>935.6</v>
+      </c>
+      <c r="L34" t="n">
+        <v>935.4</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.2000000000000455</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1731870473.7103066</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1731870474.4204023</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870473.7103066.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870474.4204023.png</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>934.2</v>
+      </c>
+      <c r="L35" t="n">
+        <v>935.4</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.199999999999932</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1731870476.1481266</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1731870477.1646848</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870476.1481266.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731870477.1646848.png</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>935.8</v>
+      </c>
+      <c r="L36" t="n">
+        <v>935.4</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.3999999999999773</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1731870477.4254143</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1731870478.9253042</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870477.4254143.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870478.9253042.png</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>37.915</v>
+      </c>
+      <c r="L37" t="n">
+        <v>38.045</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.1300000000000026</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1731870479.6015983</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1731870479.953995</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870479.6015983.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870479.953995.png</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>38.12</v>
+      </c>
+      <c r="L38" t="n">
+        <v>37.98</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.1400000000000006</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1731870480.6602848</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1731870481.8176134</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870480.6602848.png</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870481.8176134.png</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>37.905</v>
+      </c>
+      <c r="L39" t="n">
+        <v>37.93</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.02499999999999858</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1731870484.1648886</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1731870491.3954782</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870484.1648886.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870491.3954782.png</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>37.925</v>
+      </c>
+      <c r="L40" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-0.2150000000000034</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.5700000000000001</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1731870492.3267694</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1731870494.2860193</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870492.3267694.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731870494.2860193.png</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>38.11</v>
+      </c>
+      <c r="L41" t="n">
+        <v>38.075</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-0.03499999999999659</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1731870496.1793246</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1731870497.9667697</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870496.1793246.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870497.9667697.png</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1243.8</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1247.4</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-3.600000000000136</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1731870498.4269743</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1731870500.1296833</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870498.4269743.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870500.1296833.png</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1245.6</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1246.2</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.6000000000001364</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1731870500.7083335</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1731870501.478356</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870500.7083335.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870501.478356.png</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1246.6</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1243.8</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2.799999999999955</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1731870502.7042217</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1731870502.8018231</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870502.7042217.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870502.8018231.png</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1243.6</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1243.8</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-0.2000000000000455</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1731870502.9294565</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1731870504.0027037</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870502.9294565.png</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870504.0027037.png</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1242.2</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1244.6</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2.399999999999864</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1731870504.4780474</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1731870505.3631744</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870504.4780474.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870505.3631744.png</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1240.4</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1243.8</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3.399999999999864</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1731870508.4593732</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1731870512.462358</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870508.4593732.png</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870512.462358.png</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1235</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1237.4</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2.400000000000091</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1731870514.461651</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731870514.461651.png</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1239.2</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1240.2</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1731870516.3721764</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1731870517.718202</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731870516.3721764.png</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731870517.718202.png</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>81.18000000000001</v>
+      </c>
+      <c r="L50" t="n">
+        <v>81.11</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.07000000000000739</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1731870520.458669</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1731870524.511481</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731870520.458669.png</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731870524.511481.png</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>80.95</v>
+      </c>
+      <c r="L51" t="n">
+        <v>80.84999999999999</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-0.1000000000000085</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1731870526.0097077</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1731870528.0403442</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731870526.0097077.png</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731870528.0403442.png</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>80.64</v>
+      </c>
+      <c r="L52" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.1400000000000006</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1731870532.2300653</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731870532.2300653.png</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>80.64</v>
+      </c>
+      <c r="L53" t="n">
+        <v>80.95999999999999</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-0.3199999999999932</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1731870534.6480525</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1731870534.9051018</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731870534.6480525.png</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731870534.9051018.png</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="L54" t="n">
+        <v>14.424</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.06600000000000072</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1731870535.4506004</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1731870535.7006154</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731870535.4506004.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731870535.7006154.png</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>14.519</v>
+      </c>
+      <c r="L55" t="n">
+        <v>14.457</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.06199999999999939</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1731870537.3159056</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1731870537.6794505</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731870537.3159056.png</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731870537.6794505.png</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>14.47</v>
+      </c>
+      <c r="L56" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.01999999999999957</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1731870537.7783077</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1731870538.3769412</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731870537.7783077.png</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731870538.3769412.png</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>14.515</v>
+      </c>
+      <c r="L57" t="n">
+        <v>14.511</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.004000000000001336</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1731870539.5983553</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1731870540.6909232</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731870539.5983553.png</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731870540.6909232.png</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>14.47</v>
+      </c>
+      <c r="L58" t="n">
+        <v>14.471</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.0009999999999994458</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1731870540.8970091</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1731870541.7710276</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731870540.8970091.png</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731870541.7710276.png</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>14.436</v>
+      </c>
+      <c r="L59" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.06400000000000006</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1731870542.9256666</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1731870543.983445</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731870542.9256666.png</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731870543.983445.png</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="L60" t="n">
+        <v>14.484</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.08399999999999963</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1731870546.284818</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1731870547.8250332</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731870546.284818.png</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731870547.8250332.png</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>14.386</v>
+      </c>
+      <c r="L61" t="n">
+        <v>14.414</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.02800000000000047</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1731870549.9193478</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1731870551.141599</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731870549.9193478.png</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731870551.141599.png</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>14.324</v>
+      </c>
+      <c r="L62" t="n">
+        <v>14.375</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.05100000000000016</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1731870553.3420477</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1731870553.9162827</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870553.3420477.png</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870553.9162827.png</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>106.58</v>
+      </c>
+      <c r="L63" t="n">
+        <v>106.65</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.07000000000000739</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1731870554.2307725</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1731870556.0842643</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870554.2307725.png</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870556.0842643.png</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>107</v>
+      </c>
+      <c r="L64" t="n">
+        <v>107.11</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-0.1099999999999994</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1731870556.2413962</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1731870558.2416034</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870556.2413962.png</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870558.2416034.png</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>106.98</v>
+      </c>
+      <c r="L65" t="n">
+        <v>107.03</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.04999999999999716</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1731870559.6223714</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1731870559.7084045</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870559.6223714.png</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870559.7084045.png</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>106.78</v>
+      </c>
+      <c r="L66" t="n">
+        <v>106.95</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.1700000000000017</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1731870562.892547</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1731870567.496023</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870562.892547.png</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870567.496023.png</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>106.66</v>
+      </c>
+      <c r="L67" t="n">
+        <v>106</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.6599999999999966</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.62</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1731870568.0505357</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1731870568.600995</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870568.0505357.png</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870568.600995.png</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>106.34</v>
+      </c>
+      <c r="L68" t="n">
+        <v>105.97</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.3700000000000045</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1731870569.1854277</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1731870569.6565495</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870569.1854277.png</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870569.6565495.png</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>105.89</v>
+      </c>
+      <c r="L69" t="n">
+        <v>106.03</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.1400000000000006</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1731870570.009653</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1731870570.309827</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870570.009653.png</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731870570.309827.png</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>106.22</v>
+      </c>
+      <c r="L70" t="n">
+        <v>105.97</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1731870572.3644755</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1731870572.5452185</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731870572.3644755.png</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731870572.5452185.png</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>348.61</v>
+      </c>
+      <c r="L71" t="n">
+        <v>348.96</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.3499999999999659</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1731870572.8447952</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1731870572.9565015</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731870572.8447952.png</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731870572.9565015.png</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>348.84</v>
+      </c>
+      <c r="L72" t="n">
+        <v>348.99</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.1500000000000341</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1731870573.0328379</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1731870575.1790938</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731870573.0328379.png</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731870575.1790938.png</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>349.22</v>
+      </c>
+      <c r="L73" t="n">
+        <v>350.01</v>
+      </c>
+      <c r="M73" t="n">
+        <v>-0.7899999999999636</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1731870575.3022983</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1731870575.407199</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731870575.3022983.png</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731870575.407199.png</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>350.08</v>
+      </c>
+      <c r="L74" t="n">
+        <v>350.11</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.03000000000002956</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1731870575.7485867</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1731870576.8474057</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731870575.7485867.png</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731870576.8474057.png</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>349.99</v>
+      </c>
+      <c r="L75" t="n">
+        <v>349.89</v>
+      </c>
+      <c r="M75" t="n">
+        <v>-0.1000000000000227</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>1731870577.0261388</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1731870577.892415</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731870577.0261388.png</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731870577.892415.png</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>350.24</v>
+      </c>
+      <c r="L76" t="n">
+        <v>349.56</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.6800000000000068</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1731870578.136967</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1731870579.225545</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731870578.136967.png</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731870579.225545.png</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>350.35</v>
+      </c>
+      <c r="L77" t="n">
+        <v>350.1</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>1731870579.7228646</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1731870587.7026901</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731870579.7228646.png</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731870587.7026901.png</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>349.57</v>
+      </c>
+      <c r="L78" t="n">
+        <v>346.44</v>
+      </c>
+      <c r="M78" t="n">
+        <v>-3.129999999999995</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>1731870587.7186475</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1731870587.7845068</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731870587.7186475.png</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731870587.7845068.png</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>346.44</v>
+      </c>
+      <c r="L79" t="n">
+        <v>346.32</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.1200000000000045</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>1731870587.8766413</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1731870588.0193045</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731870587.8766413.png</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731870588.0193045.png</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>346.15</v>
+      </c>
+      <c r="L80" t="n">
+        <v>346.66</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.5100000000000477</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1731870589.1871135</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731870589.1871135.png</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>347.05</v>
+      </c>
+      <c r="L81" t="n">
+        <v>347.25</v>
+      </c>
+      <c r="M81" t="n">
+        <v>-0.1999999999999886</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1731702062.4701653</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1731702062.7606359</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731702062.4701653.png</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731702062.7606359.png</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>1731870590.8311405</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1731870592.5401077</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731870590.8311405.png</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731870592.5401077.png</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>2793.4</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2793.1</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.3000000000001819</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>1731870595.7870545</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1731870598.0461931</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731870595.7870545.png</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731870598.0461931.png</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>2786.45</v>
+      </c>
+      <c r="L83" t="n">
+        <v>2785</v>
+      </c>
+      <c r="M83" t="n">
+        <v>-1.449999999999818</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>1731870600.290882</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1731870600.3337398</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731870600.290882.png</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731870600.3337398.png</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>2783.45</v>
+      </c>
+      <c r="L84" t="n">
+        <v>2784.85</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1.400000000000091</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>1731870601.805587</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1731870603.7218418</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731870601.805587.png</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731870603.7218418.png</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>2776.05</v>
+      </c>
+      <c r="L85" t="n">
+        <v>2783.9</v>
+      </c>
+      <c r="M85" t="n">
+        <v>7.849999999999909</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>1731870605.6135583</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1731870605.908931</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731870605.6135583.png</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731870605.908931.png</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>2774</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L86" t="n">
         <v>2779.85</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M86" t="n">
         <v>5.849999999999909</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N86" t="n">
         <v>0.21</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>1731870609.1894908</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1731870610.2317872</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870609.1894908.png</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870610.2317872.png</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>599.1</v>
+      </c>
+      <c r="L87" t="n">
+        <v>597.7</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1.399999999999977</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>1731870611.0403836</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1731870614.9492624</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870611.0403836.png</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870614.9492624.png</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>596.2</v>
+      </c>
+      <c r="L88" t="n">
+        <v>592.5</v>
+      </c>
+      <c r="M88" t="n">
+        <v>-3.700000000000045</v>
+      </c>
+      <c r="N88" t="n">
+        <v>-0.62</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1731870615.3594017</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1731870617.2356167</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870615.3594017.png</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870617.2356167.png</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>592.7</v>
+      </c>
+      <c r="L89" t="n">
+        <v>593.4</v>
+      </c>
+      <c r="M89" t="n">
+        <v>-0.6999999999999318</v>
+      </c>
+      <c r="N89" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1731870617.6460943</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1731870619.445532</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870617.6460943.png</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870619.445532.png</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>594.7</v>
+      </c>
+      <c r="L90" t="n">
+        <v>593.9</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.8000000000000682</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1731870619.489958</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1731870619.9323637</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870619.489958.png</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870619.9323637.png</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>594</v>
+      </c>
+      <c r="L91" t="n">
+        <v>594.5</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>1731870620.2731957</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1731870621.4883134</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870620.2731957.png</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870621.4883134.png</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>592.5</v>
+      </c>
+      <c r="L92" t="n">
+        <v>593.9</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1.399999999999977</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>1731870621.8212328</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1731870622.1790643</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870621.8212328.png</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870622.1790643.png</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>594.8</v>
+      </c>
+      <c r="L93" t="n">
+        <v>593.6</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1.199999999999932</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>1731870622.71462</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731870622.71462.png</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>592.4</v>
+      </c>
+      <c r="L94" t="n">
+        <v>588.8</v>
+      </c>
+      <c r="M94" t="n">
+        <v>-3.600000000000023</v>
+      </c>
+      <c r="N94" t="n">
+        <v>-0.61</v>
       </c>
     </row>
   </sheetData>
@@ -806,7 +5842,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,42 +5885,284 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>BSPB</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.95000000000027</v>
+        <v>-2.129999999999882</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>2.790000000000055</v>
+        <v>-0.1936363636363529</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5</v>
+        <v>-0.6299999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3800000000000008</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04222222222222231</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6.799999999999727</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8499999999999659</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2800000000000153</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.03500000000000192</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-9.400000000000205</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-1.175000000000026</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-7.650000000000034</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.9562500000000043</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-1.56</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2.700000000000045</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.3375000000000057</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.2499999999999716</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.03571428571428165</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.04500000000000171</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.009000000000000341</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.1199999999999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>13.95000000000027</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.790000000000055</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.4899999999999949</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.1224999999999987</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C14" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
